--- a/Code/Results/Cases/Case_3_165/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_165/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.020192048387223</v>
+        <v>1.045620262725187</v>
       </c>
       <c r="D2">
-        <v>1.03825788926207</v>
+        <v>1.053264459838836</v>
       </c>
       <c r="E2">
-        <v>1.033387705825874</v>
+        <v>1.053472928151599</v>
       </c>
       <c r="F2">
-        <v>1.043168173548726</v>
+        <v>1.064602427152493</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051571784389732</v>
+        <v>1.043599458744019</v>
       </c>
       <c r="J2">
-        <v>1.041785146958405</v>
+        <v>1.050679023919927</v>
       </c>
       <c r="K2">
-        <v>1.049208769906446</v>
+        <v>1.056010908014736</v>
       </c>
       <c r="L2">
-        <v>1.04440069699857</v>
+        <v>1.056218800659506</v>
       </c>
       <c r="M2">
-        <v>1.054057164393458</v>
+        <v>1.067317920747931</v>
       </c>
       <c r="N2">
-        <v>1.043264601361537</v>
+        <v>1.052171108648462</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.024251117826435</v>
+        <v>1.046490415189282</v>
       </c>
       <c r="D3">
-        <v>1.041384964885032</v>
+        <v>1.053961420501941</v>
       </c>
       <c r="E3">
-        <v>1.036762398920332</v>
+        <v>1.054246653795925</v>
       </c>
       <c r="F3">
-        <v>1.046870927809561</v>
+        <v>1.06545615015653</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052743677043596</v>
+        <v>1.043804952033931</v>
       </c>
       <c r="J3">
-        <v>1.044101817262487</v>
+        <v>1.051197304170316</v>
       </c>
       <c r="K3">
-        <v>1.051514346044534</v>
+        <v>1.056521176234962</v>
       </c>
       <c r="L3">
-        <v>1.046945551279652</v>
+        <v>1.056805678612851</v>
       </c>
       <c r="M3">
-        <v>1.056937254860349</v>
+        <v>1.067986784283054</v>
       </c>
       <c r="N3">
-        <v>1.045584561603151</v>
+        <v>1.052690124916254</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.026829790215396</v>
+        <v>1.047054150406387</v>
       </c>
       <c r="D4">
-        <v>1.043374580523231</v>
+        <v>1.054413010152079</v>
       </c>
       <c r="E4">
-        <v>1.038911904484808</v>
+        <v>1.054748297517037</v>
       </c>
       <c r="F4">
-        <v>1.049229301112423</v>
+        <v>1.066009683375776</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053480168942512</v>
+        <v>1.043937073139291</v>
       </c>
       <c r="J4">
-        <v>1.045571225633219</v>
+        <v>1.05153268532617</v>
       </c>
       <c r="K4">
-        <v>1.052976247284998</v>
+        <v>1.05685128502478</v>
       </c>
       <c r="L4">
-        <v>1.048562328429085</v>
+        <v>1.0571857563158</v>
       </c>
       <c r="M4">
-        <v>1.058767772613348</v>
+        <v>1.068420052739563</v>
       </c>
       <c r="N4">
-        <v>1.047056056702314</v>
+        <v>1.053025982351818</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.027902776195626</v>
+        <v>1.047291307915095</v>
       </c>
       <c r="D5">
-        <v>1.044203145719526</v>
+        <v>1.054603002595822</v>
       </c>
       <c r="E5">
-        <v>1.03980762565623</v>
+        <v>1.054959424095585</v>
       </c>
       <c r="F5">
-        <v>1.050212042307098</v>
+        <v>1.066242654322417</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053784674191244</v>
+        <v>1.043992413422732</v>
       </c>
       <c r="J5">
-        <v>1.046182056943088</v>
+        <v>1.051673682885591</v>
       </c>
       <c r="K5">
-        <v>1.053583838799489</v>
+        <v>1.056990044942881</v>
       </c>
       <c r="L5">
-        <v>1.049235054959704</v>
+        <v>1.05734561818232</v>
       </c>
       <c r="M5">
-        <v>1.059529617910294</v>
+        <v>1.068602309482655</v>
       </c>
       <c r="N5">
-        <v>1.047667755462706</v>
+        <v>1.053167180143946</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.02808229523161</v>
+        <v>1.047331137230067</v>
       </c>
       <c r="D6">
-        <v>1.044341810386896</v>
+        <v>1.054634911565265</v>
       </c>
       <c r="E6">
-        <v>1.039957563010925</v>
+        <v>1.054994886937833</v>
       </c>
       <c r="F6">
-        <v>1.050376545302054</v>
+        <v>1.066281786687651</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053835504879298</v>
+        <v>1.04400169335019</v>
       </c>
       <c r="J6">
-        <v>1.046284218383934</v>
+        <v>1.051697357154124</v>
       </c>
       <c r="K6">
-        <v>1.053685451205375</v>
+        <v>1.05701334226026</v>
       </c>
       <c r="L6">
-        <v>1.049347605694436</v>
+        <v>1.057372464178773</v>
       </c>
       <c r="M6">
-        <v>1.059657089478407</v>
+        <v>1.068632917635813</v>
       </c>
       <c r="N6">
-        <v>1.047770061984517</v>
+        <v>1.053190888032656</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.026844170608735</v>
+        <v>1.047057318677237</v>
       </c>
       <c r="D7">
-        <v>1.04338568248004</v>
+        <v>1.054415548276191</v>
       </c>
       <c r="E7">
-        <v>1.038923904001749</v>
+        <v>1.054751117677399</v>
       </c>
       <c r="F7">
-        <v>1.049242466454639</v>
+        <v>1.066012795303816</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053484257724658</v>
+        <v>1.043937813399082</v>
       </c>
       <c r="J7">
-        <v>1.045579414493336</v>
+        <v>1.051534569330999</v>
       </c>
       <c r="K7">
-        <v>1.052984393190664</v>
+        <v>1.056853139213272</v>
       </c>
       <c r="L7">
-        <v>1.048571344554993</v>
+        <v>1.057187892096327</v>
       </c>
       <c r="M7">
-        <v>1.058777982417114</v>
+        <v>1.068422487630179</v>
       </c>
       <c r="N7">
-        <v>1.047064257191552</v>
+        <v>1.05302786903215</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.021573952240294</v>
+        <v>1.045914191339385</v>
       </c>
       <c r="D8">
-        <v>1.039321838615876</v>
+        <v>1.053499873699783</v>
       </c>
       <c r="E8">
-        <v>1.034535419406544</v>
+        <v>1.053734205974415</v>
       </c>
       <c r="F8">
-        <v>1.044427480380697</v>
+        <v>1.064890714333233</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05197240867817</v>
+        <v>1.04366908107328</v>
       </c>
       <c r="J8">
-        <v>1.042574326657686</v>
+        <v>1.050854174422633</v>
       </c>
       <c r="K8">
-        <v>1.049994265095298</v>
+        <v>1.056183369008945</v>
       </c>
       <c r="L8">
-        <v>1.045267056191535</v>
+        <v>1.05641706995229</v>
       </c>
       <c r="M8">
-        <v>1.055037490984408</v>
+        <v>1.067543868233833</v>
       </c>
       <c r="N8">
-        <v>1.044054901786486</v>
+        <v>1.052346507884971</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.011903972770883</v>
+        <v>1.04390519703979</v>
       </c>
       <c r="D9">
-        <v>1.031891274690581</v>
+        <v>1.051891083946898</v>
       </c>
       <c r="E9">
-        <v>1.026529364807407</v>
+        <v>1.051949951188641</v>
       </c>
       <c r="F9">
-        <v>1.035642429246744</v>
+        <v>1.062922106553256</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049136493366503</v>
+        <v>1.043189086200585</v>
       </c>
       <c r="J9">
-        <v>1.037043262299336</v>
+        <v>1.049655434719696</v>
       </c>
       <c r="K9">
-        <v>1.044487292468116</v>
+        <v>1.055002679714188</v>
       </c>
       <c r="L9">
-        <v>1.03920620098422</v>
+        <v>1.055061361228898</v>
       </c>
       <c r="M9">
-        <v>1.048182539475026</v>
+        <v>1.065999291607096</v>
       </c>
       <c r="N9">
-        <v>1.038515982682326</v>
+        <v>1.051146065834159</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.005174691334384</v>
+        <v>1.042569553235391</v>
       </c>
       <c r="D10">
-        <v>1.026740765410613</v>
+        <v>1.050821853312627</v>
       </c>
       <c r="E10">
-        <v>1.020991621161259</v>
+        <v>1.050765715116816</v>
       </c>
       <c r="F10">
-        <v>1.029564946096558</v>
+        <v>1.061615626208735</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047123156690131</v>
+        <v>1.042864792336864</v>
       </c>
       <c r="J10">
-        <v>1.033184494297516</v>
+        <v>1.048856487158568</v>
       </c>
       <c r="K10">
-        <v>1.040643428111564</v>
+        <v>1.054215317784241</v>
       </c>
       <c r="L10">
-        <v>1.034991934088197</v>
+        <v>1.05415937399283</v>
       </c>
       <c r="M10">
-        <v>1.043420154436384</v>
+        <v>1.064972132217387</v>
       </c>
       <c r="N10">
-        <v>1.034651734787337</v>
+        <v>1.050345983675854</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.002187828650185</v>
+        <v>1.041992098663444</v>
       </c>
       <c r="D11">
-        <v>1.024460156439833</v>
+        <v>1.050359668569289</v>
       </c>
       <c r="E11">
-        <v>1.018542187762362</v>
+        <v>1.050254199900313</v>
       </c>
       <c r="F11">
-        <v>1.026876494134157</v>
+        <v>1.061051335227377</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046220533096044</v>
+        <v>1.04272335913023</v>
       </c>
       <c r="J11">
-        <v>1.031469873782312</v>
+        <v>1.048510600339803</v>
       </c>
       <c r="K11">
-        <v>1.038935076237979</v>
+        <v>1.053874342196069</v>
       </c>
       <c r="L11">
-        <v>1.033122697067123</v>
+        <v>1.053769252843058</v>
       </c>
       <c r="M11">
-        <v>1.041308754763876</v>
+        <v>1.064527987840425</v>
       </c>
       <c r="N11">
-        <v>1.032934679314331</v>
+        <v>1.049999605658133</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.001066857698111</v>
+        <v>1.041777741316307</v>
       </c>
       <c r="D12">
-        <v>1.023605128149281</v>
+        <v>1.050188114440099</v>
       </c>
       <c r="E12">
-        <v>1.017624250763878</v>
+        <v>1.050064392546503</v>
       </c>
       <c r="F12">
-        <v>1.025868935430968</v>
+        <v>1.060841948272445</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045880469459825</v>
+        <v>1.042670673225389</v>
       </c>
       <c r="J12">
-        <v>1.0308261347198</v>
+        <v>1.048382133281879</v>
       </c>
       <c r="K12">
-        <v>1.038293646167433</v>
+        <v>1.053747683612575</v>
       </c>
       <c r="L12">
-        <v>1.032421411967565</v>
+        <v>1.053624412821586</v>
       </c>
       <c r="M12">
-        <v>1.040516760483066</v>
+        <v>1.064363107982113</v>
       </c>
       <c r="N12">
-        <v>1.032290026068513</v>
+        <v>1.049870956162251</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.001307840045498</v>
+        <v>1.041823715560853</v>
       </c>
       <c r="D13">
-        <v>1.023788898105604</v>
+        <v>1.050224907839769</v>
       </c>
       <c r="E13">
-        <v>1.017821524345463</v>
+        <v>1.050105098142324</v>
       </c>
       <c r="F13">
-        <v>1.026085471867989</v>
+        <v>1.060886852686403</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045953633591515</v>
+        <v>1.042681981366857</v>
       </c>
       <c r="J13">
-        <v>1.030964533708855</v>
+        <v>1.048409689396808</v>
       </c>
       <c r="K13">
-        <v>1.038431550610321</v>
+        <v>1.053774852516448</v>
       </c>
       <c r="L13">
-        <v>1.032572160159191</v>
+        <v>1.053655478381944</v>
       </c>
       <c r="M13">
-        <v>1.040687001031158</v>
+        <v>1.064398470940046</v>
       </c>
       <c r="N13">
-        <v>1.032428621600006</v>
+        <v>1.049898551410024</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.002095407049226</v>
+        <v>1.041974377055317</v>
       </c>
       <c r="D14">
-        <v>1.024389642876938</v>
+        <v>1.050345485355098</v>
       </c>
       <c r="E14">
-        <v>1.018466478384139</v>
+        <v>1.050238506434285</v>
       </c>
       <c r="F14">
-        <v>1.026793393976959</v>
+        <v>1.061034022821966</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046192521961539</v>
+        <v>1.042719007179613</v>
       </c>
       <c r="J14">
-        <v>1.03141680357965</v>
+        <v>1.04849998098689</v>
       </c>
       <c r="K14">
-        <v>1.038882197244082</v>
+        <v>1.053863872653661</v>
       </c>
       <c r="L14">
-        <v>1.033064872499288</v>
+        <v>1.053757278919145</v>
       </c>
       <c r="M14">
-        <v>1.041243447839961</v>
+        <v>1.064514356869684</v>
       </c>
       <c r="N14">
-        <v>1.032881533745895</v>
+        <v>1.04998897122452</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.002579110114685</v>
+        <v>1.042067222509573</v>
       </c>
       <c r="D15">
-        <v>1.0247587232248</v>
+        <v>1.050419793343621</v>
       </c>
       <c r="E15">
-        <v>1.018862770208257</v>
+        <v>1.050320729206017</v>
       </c>
       <c r="F15">
-        <v>1.02722836995546</v>
+        <v>1.061124727859212</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046339069543149</v>
+        <v>1.042741799975201</v>
       </c>
       <c r="J15">
-        <v>1.031694545278488</v>
+        <v>1.048555614072652</v>
       </c>
       <c r="K15">
-        <v>1.039158936493162</v>
+        <v>1.053918720266865</v>
       </c>
       <c r="L15">
-        <v>1.033367516589581</v>
+        <v>1.053820010689422</v>
       </c>
       <c r="M15">
-        <v>1.041585259177414</v>
+        <v>1.064585770671167</v>
       </c>
       <c r="N15">
-        <v>1.033159669869801</v>
+        <v>1.050044683315646</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.005371335043554</v>
+        <v>1.042607895837516</v>
       </c>
       <c r="D16">
-        <v>1.026891031717227</v>
+        <v>1.050852543982935</v>
       </c>
       <c r="E16">
-        <v>1.021153065293285</v>
+        <v>1.050799689545229</v>
       </c>
       <c r="F16">
-        <v>1.029742137732744</v>
+        <v>1.061653106503943</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047182398039167</v>
+        <v>1.042874157534766</v>
       </c>
       <c r="J16">
-        <v>1.033297342760825</v>
+        <v>1.048879443958835</v>
       </c>
       <c r="K16">
-        <v>1.040755857347188</v>
+        <v>1.054237946426569</v>
       </c>
       <c r="L16">
-        <v>1.035115028537692</v>
+        <v>1.054185274553578</v>
       </c>
       <c r="M16">
-        <v>1.043559215891417</v>
+        <v>1.065001621869467</v>
       </c>
       <c r="N16">
-        <v>1.034764743508407</v>
+        <v>1.05036897307741</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.007102895529117</v>
+        <v>1.042947284790055</v>
       </c>
       <c r="D17">
-        <v>1.028214846616611</v>
+        <v>1.051124212256328</v>
       </c>
       <c r="E17">
-        <v>1.02257565461963</v>
+        <v>1.051100469179636</v>
       </c>
       <c r="F17">
-        <v>1.03130345553254</v>
+        <v>1.061984926995172</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047703032658921</v>
+        <v>1.042956911534865</v>
       </c>
       <c r="J17">
-        <v>1.034290830030127</v>
+        <v>1.049082591593516</v>
       </c>
       <c r="K17">
-        <v>1.041745614562825</v>
+        <v>1.054438178085122</v>
       </c>
       <c r="L17">
-        <v>1.036199100184624</v>
+        <v>1.054414515159027</v>
       </c>
       <c r="M17">
-        <v>1.044784015126694</v>
+        <v>1.065262642127073</v>
       </c>
       <c r="N17">
-        <v>1.035759641643587</v>
+        <v>1.050572409205033</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.008105876640834</v>
+        <v>1.043145330197964</v>
       </c>
       <c r="D18">
-        <v>1.028982165819555</v>
+        <v>1.051282748752544</v>
       </c>
       <c r="E18">
-        <v>1.023400478284855</v>
+        <v>1.05127603095721</v>
       </c>
       <c r="F18">
-        <v>1.032208688013188</v>
+        <v>1.062178609502111</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048003745879921</v>
+        <v>1.043005082869622</v>
       </c>
       <c r="J18">
-        <v>1.034866113003419</v>
+        <v>1.049201090140147</v>
       </c>
       <c r="K18">
-        <v>1.042318703441988</v>
+        <v>1.054554965616062</v>
       </c>
       <c r="L18">
-        <v>1.036827154410564</v>
+        <v>1.05454827019138</v>
       </c>
       <c r="M18">
-        <v>1.045493690363348</v>
+        <v>1.065414950772241</v>
       </c>
       <c r="N18">
-        <v>1.036335741584686</v>
+        <v>1.050691076033192</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.00844669444125</v>
+        <v>1.043212873030966</v>
       </c>
       <c r="D19">
-        <v>1.029242990840311</v>
+        <v>1.051336818604759</v>
       </c>
       <c r="E19">
-        <v>1.023680893152967</v>
+        <v>1.051335913641447</v>
       </c>
       <c r="F19">
-        <v>1.032516435087801</v>
+        <v>1.062244673448569</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048105783144307</v>
+        <v>1.043021491461534</v>
       </c>
       <c r="J19">
-        <v>1.035061565243016</v>
+        <v>1.049241496055674</v>
       </c>
       <c r="K19">
-        <v>1.042513404186716</v>
+        <v>1.054594786391469</v>
       </c>
       <c r="L19">
-        <v>1.037040589599544</v>
+        <v>1.054593884427643</v>
       </c>
       <c r="M19">
-        <v>1.045734878688702</v>
+        <v>1.065466894202442</v>
       </c>
       <c r="N19">
-        <v>1.036531471388881</v>
+        <v>1.050731539329755</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.006917844257762</v>
+        <v>1.042910862704689</v>
       </c>
       <c r="D20">
-        <v>1.028073316759005</v>
+        <v>1.051095056845387</v>
       </c>
       <c r="E20">
-        <v>1.022423538665161</v>
+        <v>1.051068185728127</v>
       </c>
       <c r="F20">
-        <v>1.031136508287007</v>
+        <v>1.061949311588494</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047647481187736</v>
+        <v>1.0429480429116</v>
       </c>
       <c r="J20">
-        <v>1.034184674784146</v>
+        <v>1.049060795148318</v>
       </c>
       <c r="K20">
-        <v>1.04163986136336</v>
+        <v>1.054416695548676</v>
       </c>
       <c r="L20">
-        <v>1.036083232908832</v>
+        <v>1.054389915367346</v>
       </c>
       <c r="M20">
-        <v>1.044653097246945</v>
+        <v>1.065234630911565</v>
       </c>
       <c r="N20">
-        <v>1.03565333564498</v>
+        <v>1.050550581806384</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.001863810660163</v>
+        <v>1.041930007261195</v>
       </c>
       <c r="D21">
-        <v>1.024212959624671</v>
+        <v>1.050309974903708</v>
       </c>
       <c r="E21">
-        <v>1.018276782345535</v>
+        <v>1.05019921569767</v>
       </c>
       <c r="F21">
-        <v>1.026585178937862</v>
+        <v>1.060990678911192</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046122308794136</v>
+        <v>1.042708108171987</v>
       </c>
       <c r="J21">
-        <v>1.031283812873645</v>
+        <v>1.048473392058213</v>
       </c>
       <c r="K21">
-        <v>1.038749685008316</v>
+        <v>1.053837658571131</v>
       </c>
       <c r="L21">
-        <v>1.032919975755482</v>
+        <v>1.053727299300016</v>
       </c>
       <c r="M21">
-        <v>1.041079804127286</v>
+        <v>1.064480228712415</v>
       </c>
       <c r="N21">
-        <v>1.032748354177832</v>
+        <v>1.049962344536515</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.998619210575628</v>
+        <v>1.041314086321032</v>
       </c>
       <c r="D22">
-        <v>1.021739862737585</v>
+        <v>1.0498170686788</v>
       </c>
       <c r="E22">
-        <v>1.015622444369421</v>
+        <v>1.049653972517123</v>
       </c>
       <c r="F22">
-        <v>1.023671589697892</v>
+        <v>1.060389198254738</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045135580159772</v>
+        <v>1.042556376567154</v>
       </c>
       <c r="J22">
-        <v>1.029420127613117</v>
+        <v>1.048104131004439</v>
       </c>
       <c r="K22">
-        <v>1.036892610172164</v>
+        <v>1.053473566384689</v>
       </c>
       <c r="L22">
-        <v>1.03089064298544</v>
+        <v>1.053311082411047</v>
       </c>
       <c r="M22">
-        <v>1.038788254568201</v>
+        <v>1.064006457357722</v>
       </c>
       <c r="N22">
-        <v>1.030882022270467</v>
+        <v>1.04959255908969</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.000345768881084</v>
+        <v>1.041640523030367</v>
       </c>
       <c r="D23">
-        <v>1.023055369745771</v>
+        <v>1.050078300079188</v>
       </c>
       <c r="E23">
-        <v>1.017034151129847</v>
+        <v>1.049942910149151</v>
       </c>
       <c r="F23">
-        <v>1.025221207750918</v>
+        <v>1.060707935415359</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045661352721165</v>
+        <v>1.042636895077625</v>
       </c>
       <c r="J23">
-        <v>1.030411972698572</v>
+        <v>1.048299876915802</v>
       </c>
       <c r="K23">
-        <v>1.037880958244597</v>
+        <v>1.053666580809011</v>
       </c>
       <c r="L23">
-        <v>1.031970368497988</v>
+        <v>1.053531688827273</v>
       </c>
       <c r="M23">
-        <v>1.040007416270649</v>
+        <v>1.064257559721081</v>
       </c>
       <c r="N23">
-        <v>1.031875275889709</v>
+        <v>1.049788582982699</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.007001482581983</v>
+        <v>1.04292732001307</v>
       </c>
       <c r="D24">
-        <v>1.028137282941597</v>
+        <v>1.051108230682958</v>
       </c>
       <c r="E24">
-        <v>1.022492288584129</v>
+        <v>1.051082772853189</v>
       </c>
       <c r="F24">
-        <v>1.031211961398413</v>
+        <v>1.06196540423396</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047672591655202</v>
+        <v>1.042952050562586</v>
       </c>
       <c r="J24">
-        <v>1.034232654733746</v>
+        <v>1.0490706440054</v>
       </c>
       <c r="K24">
-        <v>1.041687659702986</v>
+        <v>1.054426402595358</v>
       </c>
       <c r="L24">
-        <v>1.036135601506991</v>
+        <v>1.054401030822053</v>
       </c>
       <c r="M24">
-        <v>1.044712267993585</v>
+        <v>1.065247287789107</v>
       </c>
       <c r="N24">
-        <v>1.035701383731612</v>
+        <v>1.050560444649973</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.014451790435102</v>
+        <v>1.04442392748446</v>
       </c>
       <c r="D25">
-        <v>1.03384574867614</v>
+        <v>1.052306421429044</v>
       </c>
       <c r="E25">
-        <v>1.028633150062304</v>
+        <v>1.052410303348588</v>
       </c>
       <c r="F25">
-        <v>1.037951051221724</v>
+        <v>1.063430002926616</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049890725139438</v>
+        <v>1.043313936900309</v>
       </c>
       <c r="J25">
-        <v>1.038502393912729</v>
+        <v>1.04996530580588</v>
       </c>
       <c r="K25">
-        <v>1.045940428375972</v>
+        <v>1.055307963560288</v>
       </c>
       <c r="L25">
-        <v>1.040802658485327</v>
+        <v>1.05541153012019</v>
       </c>
       <c r="M25">
-        <v>1.049987466577403</v>
+        <v>1.066398157759197</v>
       </c>
       <c r="N25">
-        <v>1.039977186429975</v>
+        <v>1.051456376972828</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_165/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_165/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.045620262725187</v>
+        <v>1.020192048387222</v>
       </c>
       <c r="D2">
-        <v>1.053264459838836</v>
+        <v>1.03825788926207</v>
       </c>
       <c r="E2">
-        <v>1.053472928151599</v>
+        <v>1.033387705825873</v>
       </c>
       <c r="F2">
-        <v>1.064602427152493</v>
+        <v>1.043168173548725</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043599458744019</v>
+        <v>1.051571784389731</v>
       </c>
       <c r="J2">
-        <v>1.050679023919927</v>
+        <v>1.041785146958404</v>
       </c>
       <c r="K2">
-        <v>1.056010908014736</v>
+        <v>1.049208769906445</v>
       </c>
       <c r="L2">
-        <v>1.056218800659506</v>
+        <v>1.044400696998568</v>
       </c>
       <c r="M2">
-        <v>1.067317920747931</v>
+        <v>1.054057164393457</v>
       </c>
       <c r="N2">
-        <v>1.052171108648462</v>
+        <v>1.043264601361537</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.046490415189282</v>
+        <v>1.024251117826435</v>
       </c>
       <c r="D3">
-        <v>1.053961420501941</v>
+        <v>1.041384964885032</v>
       </c>
       <c r="E3">
-        <v>1.054246653795925</v>
+        <v>1.036762398920332</v>
       </c>
       <c r="F3">
-        <v>1.06545615015653</v>
+        <v>1.046870927809561</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043804952033931</v>
+        <v>1.052743677043596</v>
       </c>
       <c r="J3">
-        <v>1.051197304170316</v>
+        <v>1.044101817262486</v>
       </c>
       <c r="K3">
-        <v>1.056521176234962</v>
+        <v>1.051514346044533</v>
       </c>
       <c r="L3">
-        <v>1.056805678612851</v>
+        <v>1.046945551279652</v>
       </c>
       <c r="M3">
-        <v>1.067986784283054</v>
+        <v>1.056937254860349</v>
       </c>
       <c r="N3">
-        <v>1.052690124916254</v>
+        <v>1.045584561603151</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.047054150406387</v>
+        <v>1.026829790215396</v>
       </c>
       <c r="D4">
-        <v>1.054413010152079</v>
+        <v>1.043374580523231</v>
       </c>
       <c r="E4">
-        <v>1.054748297517037</v>
+        <v>1.038911904484807</v>
       </c>
       <c r="F4">
-        <v>1.066009683375776</v>
+        <v>1.049229301112423</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043937073139291</v>
+        <v>1.053480168942511</v>
       </c>
       <c r="J4">
-        <v>1.05153268532617</v>
+        <v>1.045571225633219</v>
       </c>
       <c r="K4">
-        <v>1.05685128502478</v>
+        <v>1.052976247284998</v>
       </c>
       <c r="L4">
-        <v>1.0571857563158</v>
+        <v>1.048562328429085</v>
       </c>
       <c r="M4">
-        <v>1.068420052739563</v>
+        <v>1.058767772613348</v>
       </c>
       <c r="N4">
-        <v>1.053025982351818</v>
+        <v>1.047056056702313</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.047291307915095</v>
+        <v>1.027902776195625</v>
       </c>
       <c r="D5">
-        <v>1.054603002595822</v>
+        <v>1.044203145719525</v>
       </c>
       <c r="E5">
-        <v>1.054959424095585</v>
+        <v>1.039807625656229</v>
       </c>
       <c r="F5">
-        <v>1.066242654322417</v>
+        <v>1.050212042307098</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043992413422732</v>
+        <v>1.053784674191244</v>
       </c>
       <c r="J5">
-        <v>1.051673682885591</v>
+        <v>1.046182056943087</v>
       </c>
       <c r="K5">
-        <v>1.056990044942881</v>
+        <v>1.053583838799489</v>
       </c>
       <c r="L5">
-        <v>1.05734561818232</v>
+        <v>1.049235054959703</v>
       </c>
       <c r="M5">
-        <v>1.068602309482655</v>
+        <v>1.059529617910294</v>
       </c>
       <c r="N5">
-        <v>1.053167180143946</v>
+        <v>1.047667755462705</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.047331137230067</v>
+        <v>1.02808229523161</v>
       </c>
       <c r="D6">
-        <v>1.054634911565265</v>
+        <v>1.044341810386896</v>
       </c>
       <c r="E6">
-        <v>1.054994886937833</v>
+        <v>1.039957563010925</v>
       </c>
       <c r="F6">
-        <v>1.066281786687651</v>
+        <v>1.050376545302054</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04400169335019</v>
+        <v>1.053835504879298</v>
       </c>
       <c r="J6">
-        <v>1.051697357154124</v>
+        <v>1.046284218383934</v>
       </c>
       <c r="K6">
-        <v>1.05701334226026</v>
+        <v>1.053685451205375</v>
       </c>
       <c r="L6">
-        <v>1.057372464178773</v>
+        <v>1.049347605694436</v>
       </c>
       <c r="M6">
-        <v>1.068632917635813</v>
+        <v>1.059657089478407</v>
       </c>
       <c r="N6">
-        <v>1.053190888032656</v>
+        <v>1.047770061984517</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.047057318677237</v>
+        <v>1.026844170608736</v>
       </c>
       <c r="D7">
-        <v>1.054415548276191</v>
+        <v>1.04338568248004</v>
       </c>
       <c r="E7">
-        <v>1.054751117677399</v>
+        <v>1.03892390400175</v>
       </c>
       <c r="F7">
-        <v>1.066012795303816</v>
+        <v>1.049242466454639</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043937813399082</v>
+        <v>1.053484257724659</v>
       </c>
       <c r="J7">
-        <v>1.051534569330999</v>
+        <v>1.045579414493336</v>
       </c>
       <c r="K7">
-        <v>1.056853139213272</v>
+        <v>1.052984393190664</v>
       </c>
       <c r="L7">
-        <v>1.057187892096327</v>
+        <v>1.048571344554993</v>
       </c>
       <c r="M7">
-        <v>1.068422487630179</v>
+        <v>1.058777982417114</v>
       </c>
       <c r="N7">
-        <v>1.05302786903215</v>
+        <v>1.047064257191552</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.045914191339385</v>
+        <v>1.021573952240292</v>
       </c>
       <c r="D8">
-        <v>1.053499873699783</v>
+        <v>1.039321838615874</v>
       </c>
       <c r="E8">
-        <v>1.053734205974415</v>
+        <v>1.034535419406542</v>
       </c>
       <c r="F8">
-        <v>1.064890714333233</v>
+        <v>1.044427480380696</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04366908107328</v>
+        <v>1.051972408678169</v>
       </c>
       <c r="J8">
-        <v>1.050854174422633</v>
+        <v>1.042574326657684</v>
       </c>
       <c r="K8">
-        <v>1.056183369008945</v>
+        <v>1.049994265095296</v>
       </c>
       <c r="L8">
-        <v>1.05641706995229</v>
+        <v>1.045267056191533</v>
       </c>
       <c r="M8">
-        <v>1.067543868233833</v>
+        <v>1.055037490984406</v>
       </c>
       <c r="N8">
-        <v>1.052346507884971</v>
+        <v>1.044054901786484</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.04390519703979</v>
+        <v>1.011903972770883</v>
       </c>
       <c r="D9">
-        <v>1.051891083946898</v>
+        <v>1.031891274690581</v>
       </c>
       <c r="E9">
-        <v>1.051949951188641</v>
+        <v>1.026529364807407</v>
       </c>
       <c r="F9">
-        <v>1.062922106553256</v>
+        <v>1.035642429246744</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043189086200585</v>
+        <v>1.049136493366502</v>
       </c>
       <c r="J9">
-        <v>1.049655434719696</v>
+        <v>1.037043262299335</v>
       </c>
       <c r="K9">
-        <v>1.055002679714188</v>
+        <v>1.044487292468115</v>
       </c>
       <c r="L9">
-        <v>1.055061361228898</v>
+        <v>1.039206200984219</v>
       </c>
       <c r="M9">
-        <v>1.065999291607096</v>
+        <v>1.048182539475025</v>
       </c>
       <c r="N9">
-        <v>1.051146065834159</v>
+        <v>1.038515982682325</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.042569553235391</v>
+        <v>1.005174691334384</v>
       </c>
       <c r="D10">
-        <v>1.050821853312627</v>
+        <v>1.026740765410613</v>
       </c>
       <c r="E10">
-        <v>1.050765715116816</v>
+        <v>1.020991621161259</v>
       </c>
       <c r="F10">
-        <v>1.061615626208735</v>
+        <v>1.029564946096558</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042864792336864</v>
+        <v>1.047123156690131</v>
       </c>
       <c r="J10">
-        <v>1.048856487158568</v>
+        <v>1.033184494297516</v>
       </c>
       <c r="K10">
-        <v>1.054215317784241</v>
+        <v>1.040643428111564</v>
       </c>
       <c r="L10">
-        <v>1.05415937399283</v>
+        <v>1.034991934088196</v>
       </c>
       <c r="M10">
-        <v>1.064972132217387</v>
+        <v>1.043420154436384</v>
       </c>
       <c r="N10">
-        <v>1.050345983675854</v>
+        <v>1.034651734787336</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.041992098663444</v>
+        <v>1.002187828650184</v>
       </c>
       <c r="D11">
-        <v>1.050359668569289</v>
+        <v>1.024460156439832</v>
       </c>
       <c r="E11">
-        <v>1.050254199900313</v>
+        <v>1.018542187762361</v>
       </c>
       <c r="F11">
-        <v>1.061051335227377</v>
+        <v>1.026876494134156</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04272335913023</v>
+        <v>1.046220533096044</v>
       </c>
       <c r="J11">
-        <v>1.048510600339803</v>
+        <v>1.031469873782311</v>
       </c>
       <c r="K11">
-        <v>1.053874342196069</v>
+        <v>1.038935076237978</v>
       </c>
       <c r="L11">
-        <v>1.053769252843058</v>
+        <v>1.033122697067122</v>
       </c>
       <c r="M11">
-        <v>1.064527987840425</v>
+        <v>1.041308754763874</v>
       </c>
       <c r="N11">
-        <v>1.049999605658133</v>
+        <v>1.03293467931433</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.041777741316307</v>
+        <v>1.001066857698111</v>
       </c>
       <c r="D12">
-        <v>1.050188114440099</v>
+        <v>1.023605128149281</v>
       </c>
       <c r="E12">
-        <v>1.050064392546503</v>
+        <v>1.017624250763878</v>
       </c>
       <c r="F12">
-        <v>1.060841948272445</v>
+        <v>1.025868935430969</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042670673225389</v>
+        <v>1.045880469459826</v>
       </c>
       <c r="J12">
-        <v>1.048382133281879</v>
+        <v>1.030826134719801</v>
       </c>
       <c r="K12">
-        <v>1.053747683612575</v>
+        <v>1.038293646167433</v>
       </c>
       <c r="L12">
-        <v>1.053624412821586</v>
+        <v>1.032421411967565</v>
       </c>
       <c r="M12">
-        <v>1.064363107982113</v>
+        <v>1.040516760483066</v>
       </c>
       <c r="N12">
-        <v>1.049870956162251</v>
+        <v>1.032290026068513</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.041823715560853</v>
+        <v>1.001307840045496</v>
       </c>
       <c r="D13">
-        <v>1.050224907839769</v>
+        <v>1.023788898105603</v>
       </c>
       <c r="E13">
-        <v>1.050105098142324</v>
+        <v>1.017821524345462</v>
       </c>
       <c r="F13">
-        <v>1.060886852686403</v>
+        <v>1.026085471867988</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042681981366857</v>
+        <v>1.045953633591514</v>
       </c>
       <c r="J13">
-        <v>1.048409689396808</v>
+        <v>1.030964533708854</v>
       </c>
       <c r="K13">
-        <v>1.053774852516448</v>
+        <v>1.03843155061032</v>
       </c>
       <c r="L13">
-        <v>1.053655478381944</v>
+        <v>1.03257216015919</v>
       </c>
       <c r="M13">
-        <v>1.064398470940046</v>
+        <v>1.040687001031157</v>
       </c>
       <c r="N13">
-        <v>1.049898551410024</v>
+        <v>1.032428621600005</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.041974377055317</v>
+        <v>1.002095407049226</v>
       </c>
       <c r="D14">
-        <v>1.050345485355098</v>
+        <v>1.024389642876938</v>
       </c>
       <c r="E14">
-        <v>1.050238506434285</v>
+        <v>1.018466478384138</v>
       </c>
       <c r="F14">
-        <v>1.061034022821966</v>
+        <v>1.026793393976958</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042719007179613</v>
+        <v>1.046192521961538</v>
       </c>
       <c r="J14">
-        <v>1.04849998098689</v>
+        <v>1.03141680357965</v>
       </c>
       <c r="K14">
-        <v>1.053863872653661</v>
+        <v>1.038882197244081</v>
       </c>
       <c r="L14">
-        <v>1.053757278919145</v>
+        <v>1.033064872499287</v>
       </c>
       <c r="M14">
-        <v>1.064514356869684</v>
+        <v>1.04124344783996</v>
       </c>
       <c r="N14">
-        <v>1.04998897122452</v>
+        <v>1.032881533745894</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.042067222509573</v>
+        <v>1.002579110114683</v>
       </c>
       <c r="D15">
-        <v>1.050419793343621</v>
+        <v>1.024758723224798</v>
       </c>
       <c r="E15">
-        <v>1.050320729206017</v>
+        <v>1.018862770208256</v>
       </c>
       <c r="F15">
-        <v>1.061124727859212</v>
+        <v>1.027228369955459</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042741799975201</v>
+        <v>1.046339069543148</v>
       </c>
       <c r="J15">
-        <v>1.048555614072652</v>
+        <v>1.031694545278486</v>
       </c>
       <c r="K15">
-        <v>1.053918720266865</v>
+        <v>1.03915893649316</v>
       </c>
       <c r="L15">
-        <v>1.053820010689422</v>
+        <v>1.033367516589579</v>
       </c>
       <c r="M15">
-        <v>1.064585770671167</v>
+        <v>1.041585259177413</v>
       </c>
       <c r="N15">
-        <v>1.050044683315646</v>
+        <v>1.0331596698698</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.042607895837516</v>
+        <v>1.005371335043554</v>
       </c>
       <c r="D16">
-        <v>1.050852543982935</v>
+        <v>1.026891031717227</v>
       </c>
       <c r="E16">
-        <v>1.050799689545229</v>
+        <v>1.021153065293285</v>
       </c>
       <c r="F16">
-        <v>1.061653106503943</v>
+        <v>1.029742137732744</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042874157534766</v>
+        <v>1.047182398039167</v>
       </c>
       <c r="J16">
-        <v>1.048879443958835</v>
+        <v>1.033297342760824</v>
       </c>
       <c r="K16">
-        <v>1.054237946426569</v>
+        <v>1.040755857347188</v>
       </c>
       <c r="L16">
-        <v>1.054185274553578</v>
+        <v>1.035115028537691</v>
       </c>
       <c r="M16">
-        <v>1.065001621869467</v>
+        <v>1.043559215891417</v>
       </c>
       <c r="N16">
-        <v>1.05036897307741</v>
+        <v>1.034764743508407</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.042947284790055</v>
+        <v>1.007102895529117</v>
       </c>
       <c r="D17">
-        <v>1.051124212256328</v>
+        <v>1.028214846616611</v>
       </c>
       <c r="E17">
-        <v>1.051100469179636</v>
+        <v>1.022575654619631</v>
       </c>
       <c r="F17">
-        <v>1.061984926995172</v>
+        <v>1.031303455532541</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042956911534865</v>
+        <v>1.047703032658921</v>
       </c>
       <c r="J17">
-        <v>1.049082591593516</v>
+        <v>1.034290830030128</v>
       </c>
       <c r="K17">
-        <v>1.054438178085122</v>
+        <v>1.041745614562825</v>
       </c>
       <c r="L17">
-        <v>1.054414515159027</v>
+        <v>1.036199100184624</v>
       </c>
       <c r="M17">
-        <v>1.065262642127073</v>
+        <v>1.044784015126695</v>
       </c>
       <c r="N17">
-        <v>1.050572409205033</v>
+        <v>1.035759641643587</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.043145330197964</v>
+        <v>1.008105876640834</v>
       </c>
       <c r="D18">
-        <v>1.051282748752544</v>
+        <v>1.028982165819555</v>
       </c>
       <c r="E18">
-        <v>1.05127603095721</v>
+        <v>1.023400478284855</v>
       </c>
       <c r="F18">
-        <v>1.062178609502111</v>
+        <v>1.032208688013189</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043005082869622</v>
+        <v>1.048003745879921</v>
       </c>
       <c r="J18">
-        <v>1.049201090140147</v>
+        <v>1.034866113003419</v>
       </c>
       <c r="K18">
-        <v>1.054554965616062</v>
+        <v>1.042318703441988</v>
       </c>
       <c r="L18">
-        <v>1.05454827019138</v>
+        <v>1.036827154410564</v>
       </c>
       <c r="M18">
-        <v>1.065414950772241</v>
+        <v>1.045493690363348</v>
       </c>
       <c r="N18">
-        <v>1.050691076033192</v>
+        <v>1.036335741584686</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.043212873030966</v>
+        <v>1.00844669444125</v>
       </c>
       <c r="D19">
-        <v>1.051336818604759</v>
+        <v>1.029242990840311</v>
       </c>
       <c r="E19">
-        <v>1.051335913641447</v>
+        <v>1.023680893152966</v>
       </c>
       <c r="F19">
-        <v>1.062244673448569</v>
+        <v>1.0325164350878</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043021491461534</v>
+        <v>1.048105783144307</v>
       </c>
       <c r="J19">
-        <v>1.049241496055674</v>
+        <v>1.035061565243015</v>
       </c>
       <c r="K19">
-        <v>1.054594786391469</v>
+        <v>1.042513404186716</v>
       </c>
       <c r="L19">
-        <v>1.054593884427643</v>
+        <v>1.037040589599544</v>
       </c>
       <c r="M19">
-        <v>1.065466894202442</v>
+        <v>1.045734878688702</v>
       </c>
       <c r="N19">
-        <v>1.050731539329755</v>
+        <v>1.036531471388881</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.042910862704689</v>
+        <v>1.006917844257761</v>
       </c>
       <c r="D20">
-        <v>1.051095056845387</v>
+        <v>1.028073316759005</v>
       </c>
       <c r="E20">
-        <v>1.051068185728127</v>
+        <v>1.022423538665159</v>
       </c>
       <c r="F20">
-        <v>1.061949311588494</v>
+        <v>1.031136508287005</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0429480429116</v>
+        <v>1.047647481187736</v>
       </c>
       <c r="J20">
-        <v>1.049060795148318</v>
+        <v>1.034184674784145</v>
       </c>
       <c r="K20">
-        <v>1.054416695548676</v>
+        <v>1.041639861363359</v>
       </c>
       <c r="L20">
-        <v>1.054389915367346</v>
+        <v>1.03608323290883</v>
       </c>
       <c r="M20">
-        <v>1.065234630911565</v>
+        <v>1.044653097246944</v>
       </c>
       <c r="N20">
-        <v>1.050550581806384</v>
+        <v>1.035653335644979</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.041930007261195</v>
+        <v>1.001863810660163</v>
       </c>
       <c r="D21">
-        <v>1.050309974903708</v>
+        <v>1.024212959624671</v>
       </c>
       <c r="E21">
-        <v>1.05019921569767</v>
+        <v>1.018276782345535</v>
       </c>
       <c r="F21">
-        <v>1.060990678911192</v>
+        <v>1.026585178937861</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042708108171987</v>
+        <v>1.046122308794136</v>
       </c>
       <c r="J21">
-        <v>1.048473392058213</v>
+        <v>1.031283812873645</v>
       </c>
       <c r="K21">
-        <v>1.053837658571131</v>
+        <v>1.038749685008316</v>
       </c>
       <c r="L21">
-        <v>1.053727299300016</v>
+        <v>1.032919975755482</v>
       </c>
       <c r="M21">
-        <v>1.064480228712415</v>
+        <v>1.041079804127286</v>
       </c>
       <c r="N21">
-        <v>1.049962344536515</v>
+        <v>1.032748354177832</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.041314086321032</v>
+        <v>0.9986192105756271</v>
       </c>
       <c r="D22">
-        <v>1.0498170686788</v>
+        <v>1.021739862737584</v>
       </c>
       <c r="E22">
-        <v>1.049653972517123</v>
+        <v>1.01562244436942</v>
       </c>
       <c r="F22">
-        <v>1.060389198254738</v>
+        <v>1.023671589697891</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042556376567154</v>
+        <v>1.045135580159772</v>
       </c>
       <c r="J22">
-        <v>1.048104131004439</v>
+        <v>1.029420127613117</v>
       </c>
       <c r="K22">
-        <v>1.053473566384689</v>
+        <v>1.036892610172164</v>
       </c>
       <c r="L22">
-        <v>1.053311082411047</v>
+        <v>1.030890642985439</v>
       </c>
       <c r="M22">
-        <v>1.064006457357722</v>
+        <v>1.0387882545682</v>
       </c>
       <c r="N22">
-        <v>1.04959255908969</v>
+        <v>1.030882022270467</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.041640523030367</v>
+        <v>1.000345768881084</v>
       </c>
       <c r="D23">
-        <v>1.050078300079188</v>
+        <v>1.023055369745771</v>
       </c>
       <c r="E23">
-        <v>1.049942910149151</v>
+        <v>1.017034151129846</v>
       </c>
       <c r="F23">
-        <v>1.060707935415359</v>
+        <v>1.025221207750917</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042636895077625</v>
+        <v>1.045661352721165</v>
       </c>
       <c r="J23">
-        <v>1.048299876915802</v>
+        <v>1.030411972698571</v>
       </c>
       <c r="K23">
-        <v>1.053666580809011</v>
+        <v>1.037880958244596</v>
       </c>
       <c r="L23">
-        <v>1.053531688827273</v>
+        <v>1.031970368497987</v>
       </c>
       <c r="M23">
-        <v>1.064257559721081</v>
+        <v>1.040007416270649</v>
       </c>
       <c r="N23">
-        <v>1.049788582982699</v>
+        <v>1.031875275889709</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.04292732001307</v>
+        <v>1.007001482581983</v>
       </c>
       <c r="D24">
-        <v>1.051108230682958</v>
+        <v>1.028137282941597</v>
       </c>
       <c r="E24">
-        <v>1.051082772853189</v>
+        <v>1.02249228858413</v>
       </c>
       <c r="F24">
-        <v>1.06196540423396</v>
+        <v>1.031211961398413</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042952050562586</v>
+        <v>1.047672591655202</v>
       </c>
       <c r="J24">
-        <v>1.0490706440054</v>
+        <v>1.034232654733746</v>
       </c>
       <c r="K24">
-        <v>1.054426402595358</v>
+        <v>1.041687659702986</v>
       </c>
       <c r="L24">
-        <v>1.054401030822053</v>
+        <v>1.036135601506991</v>
       </c>
       <c r="M24">
-        <v>1.065247287789107</v>
+        <v>1.044712267993585</v>
       </c>
       <c r="N24">
-        <v>1.050560444649973</v>
+        <v>1.035701383731612</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.04442392748446</v>
+        <v>1.014451790435102</v>
       </c>
       <c r="D25">
-        <v>1.052306421429044</v>
+        <v>1.033845748676139</v>
       </c>
       <c r="E25">
-        <v>1.052410303348588</v>
+        <v>1.028633150062304</v>
       </c>
       <c r="F25">
-        <v>1.063430002926616</v>
+        <v>1.037951051221723</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043313936900309</v>
+        <v>1.049890725139438</v>
       </c>
       <c r="J25">
-        <v>1.04996530580588</v>
+        <v>1.038502393912729</v>
       </c>
       <c r="K25">
-        <v>1.055307963560288</v>
+        <v>1.045940428375971</v>
       </c>
       <c r="L25">
-        <v>1.05541153012019</v>
+        <v>1.040802658485327</v>
       </c>
       <c r="M25">
-        <v>1.066398157759197</v>
+        <v>1.049987466577402</v>
       </c>
       <c r="N25">
-        <v>1.051456376972828</v>
+        <v>1.039977186429974</v>
       </c>
     </row>
   </sheetData>
